--- a/public setting.xlsx
+++ b/public setting.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="乱码" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>1.jsp 编码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -25,12 +25,50 @@
     <t>2.jsp 编码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>乱码处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tiles 模板jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contentType -- 指定的是JSP页最终 Browser(客户端)所见到的网页内容的编码.</t>
+  </si>
+  <si>
+    <t>pageEncoding -- 指定JSP编写时所用的编码</t>
+  </si>
+  <si>
+    <t>tiles include jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个包含的jsp都要添加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tiles 乱码处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不适用tiles的情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主文件的设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>include文件设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -43,6 +81,23 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -69,8 +124,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -586,6 +647,881 @@
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="矩形 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13392150" y="11106150"/>
+          <a:ext cx="942975" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="1" cap="none" spc="0">
+            <a:ln w="18000">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:satMod val="140000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:noFill/>
+            <a:effectLst>
+              <a:outerShdw blurRad="25500" dist="23000" dir="7020000" algn="tl">
+                <a:srgbClr val="000000">
+                  <a:alpha val="50000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="685800" y="514350"/>
+          <a:ext cx="6477000" cy="2219325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="矩形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1590675" y="1171575"/>
+          <a:ext cx="5048250" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>333374</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="矩形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1704974" y="2124076"/>
+          <a:ext cx="5191125" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="矩形标注 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2238375" y="542925"/>
+          <a:ext cx="1409700" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>contentType</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>必须</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="矩形标注 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5019675" y="542925"/>
+          <a:ext cx="1409700" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>pageEncofing</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>必须</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1026" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="685800" y="3086100"/>
+          <a:ext cx="5667375" cy="1857375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>581024</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>285749</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="矩形 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1266824" y="3771901"/>
+          <a:ext cx="5191125" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="矩形标注 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2238375" y="3124200"/>
+          <a:ext cx="3105150" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>只要</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>contentType</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>，不能添加</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>pageEncoding</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>，因为同一个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>jsp</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>不能设置两次</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>pageEncoding</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1028" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="714375" y="5495925"/>
+          <a:ext cx="6067425" cy="2038350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>257176</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="矩形 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1028700" y="5924551"/>
+          <a:ext cx="2657476" cy="171449"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="矩形标注 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1562100" y="5200650"/>
+          <a:ext cx="3105150" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>因为在</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>include</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>文件中设置了</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>contentType</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>，这里只需要设置</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>pageEncoding</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1029" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="685800" y="7715250"/>
+          <a:ext cx="5686425" cy="1190625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>133349</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>638174</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="矩形 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="819149" y="8105776"/>
+          <a:ext cx="3933825" cy="276224"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -904,7 +1840,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="G76" sqref="G76"/>
     </sheetView>
   </sheetViews>
@@ -930,15 +1866,79 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="L6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="L8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="B31" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45">
+        <v>2</v>
+      </c>
+      <c r="B45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
